--- a/포켓몬스터 골드 프로젝트 자료/포켓몬 데이터.xlsx
+++ b/포켓몬스터 골드 프로젝트 자료/포켓몬 데이터.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbtjr\Desktop\Pokemon-Gold\포켓몬스터 골드 프로젝트 자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\장규석\Desktop\Pokemon-Gold\포켓몬스터 골드 프로젝트 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AC7DC2-4077-4267-801D-06685CA413B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BD6B06-AEDD-4C5B-AF8A-3AE5B50175BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1DF19E18-D0AE-4EAE-9E88-5C2AEDEA9A22}"/>
+    <workbookView xWindow="-7332" yWindow="3744" windowWidth="15012" windowHeight="8964" xr2:uid="{1DF19E18-D0AE-4EAE-9E88-5C2AEDEA9A22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1076,30 +1076,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>체력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스피드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기초 경험치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1477,6 +1453,30 @@
   </si>
   <si>
     <t>성장형태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1941,18 +1941,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F33AC5-9BF2-4DA6-B99F-A49D6EE3F880}">
   <dimension ref="A1:AK252"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="10" max="10" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.3984375" customWidth="1"/>
+    <col min="10" max="10" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -1984,28 +1984,28 @@
         <v>259</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="Z1" s="9"/>
       <c r="AA1" s="9"/>
@@ -2032,7 +2032,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -2098,7 +2098,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
@@ -2158,7 +2158,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F4" s="1">
         <v>-1</v>
@@ -2218,7 +2218,7 @@
         <v>-1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F5" s="6">
         <v>5</v>
@@ -2278,7 +2278,7 @@
         <v>-1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F6" s="6">
         <v>6</v>
@@ -2338,7 +2338,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F7" s="6">
         <v>-1</v>
@@ -2398,7 +2398,7 @@
         <v>-1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F8" s="6">
         <v>8</v>
@@ -2458,7 +2458,7 @@
         <v>-1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F9" s="6">
         <v>9</v>
@@ -2518,7 +2518,7 @@
         <v>-1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F10" s="6">
         <v>-1</v>
@@ -2578,7 +2578,7 @@
         <v>-1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F11" s="6">
         <v>11</v>
@@ -2638,7 +2638,7 @@
         <v>-1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F12" s="6">
         <v>12</v>
@@ -2698,7 +2698,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F13" s="6">
         <v>-1</v>
@@ -2758,7 +2758,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F14" s="6">
         <v>14</v>
@@ -2818,7 +2818,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F15" s="6">
         <v>15</v>
@@ -2878,7 +2878,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F16" s="6">
         <v>-1</v>
@@ -2938,7 +2938,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F17" s="6">
         <v>17</v>
@@ -2998,7 +2998,7 @@
         <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F18" s="6">
         <v>18</v>
@@ -3058,7 +3058,7 @@
         <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F19" s="6">
         <v>-1</v>
@@ -3118,7 +3118,7 @@
         <v>-1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F20" s="6">
         <v>20</v>
@@ -3178,7 +3178,7 @@
         <v>-1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F21" s="6">
         <v>-1</v>
@@ -3238,7 +3238,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F22" s="6">
         <v>22</v>
@@ -3298,7 +3298,7 @@
         <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F23" s="6">
         <v>-1</v>
@@ -3358,7 +3358,7 @@
         <v>-1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F24" s="6">
         <v>24</v>
@@ -3418,7 +3418,7 @@
         <v>-1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F25" s="6">
         <v>-1</v>
@@ -3485,7 +3485,7 @@
         <v>-1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F26" s="6">
         <v>-1</v>
@@ -3552,7 +3552,7 @@
         <v>-1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F27" s="6">
         <v>-1</v>
@@ -3619,7 +3619,7 @@
         <v>-1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F28" s="6">
         <v>28</v>
@@ -3686,7 +3686,7 @@
         <v>-1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F29" s="6">
         <v>-1</v>
@@ -3753,7 +3753,7 @@
         <v>-1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F30" s="6">
         <v>30</v>
@@ -3820,7 +3820,7 @@
         <v>-1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F31" s="6">
         <v>31</v>
@@ -3887,7 +3887,7 @@
         <v>8</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F32" s="6">
         <v>-1</v>
@@ -3954,7 +3954,7 @@
         <v>-1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F33" s="6">
         <v>33</v>
@@ -4021,7 +4021,7 @@
         <v>-1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F34" s="6">
         <v>34</v>
@@ -4088,7 +4088,7 @@
         <v>8</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F35" s="6">
         <v>-1</v>
@@ -4155,7 +4155,7 @@
         <v>-1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F36" s="6">
         <v>36</v>
@@ -4222,7 +4222,7 @@
         <v>-1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F37" s="6">
         <v>-1</v>
@@ -4289,7 +4289,7 @@
         <v>-1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F38" s="6">
         <v>38</v>
@@ -4356,7 +4356,7 @@
         <v>-1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F39" s="6">
         <v>-1</v>
@@ -4423,7 +4423,7 @@
         <v>-1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F40" s="6">
         <v>40</v>
@@ -4490,7 +4490,7 @@
         <v>-1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F41" s="6">
         <v>-1</v>
@@ -4557,7 +4557,7 @@
         <v>9</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F42" s="6">
         <v>42</v>
@@ -4624,7 +4624,7 @@
         <v>9</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F43" s="6">
         <v>-1</v>
@@ -4691,7 +4691,7 @@
         <v>7</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F44" s="6">
         <v>44</v>
@@ -4758,7 +4758,7 @@
         <v>7</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F45" s="6">
         <v>45</v>
@@ -4825,7 +4825,7 @@
         <v>7</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F46" s="6">
         <v>-1</v>
@@ -4892,7 +4892,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F47" s="6">
         <v>47</v>
@@ -4959,7 +4959,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F48" s="6">
         <v>-1</v>
@@ -5026,7 +5026,7 @@
         <v>7</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F49" s="6">
         <v>49</v>
@@ -5093,7 +5093,7 @@
         <v>7</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F50" s="6">
         <v>-1</v>
@@ -5160,7 +5160,7 @@
         <v>-1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F51" s="6">
         <v>51</v>
@@ -5227,7 +5227,7 @@
         <v>-1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F52" s="6">
         <v>-1</v>
@@ -5294,7 +5294,7 @@
         <v>-1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F53" s="6">
         <v>53</v>
@@ -5361,7 +5361,7 @@
         <v>-1</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F54" s="6">
         <v>-1</v>
@@ -5428,7 +5428,7 @@
         <v>-1</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F55" s="6">
         <v>55</v>
@@ -5495,7 +5495,7 @@
         <v>-1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F56" s="6">
         <v>-1</v>
@@ -5558,7 +5558,7 @@
         <v>-1</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F57" s="6">
         <v>57</v>
@@ -5621,7 +5621,7 @@
         <v>-1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F58" s="6">
         <v>-1</v>
@@ -5684,7 +5684,7 @@
         <v>-1</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F59" s="6">
         <v>59</v>
@@ -5747,7 +5747,7 @@
         <v>-1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F60" s="6">
         <v>-1</v>
@@ -5810,7 +5810,7 @@
         <v>-1</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F61" s="6">
         <v>61</v>
@@ -5873,7 +5873,7 @@
         <v>-1</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F62" s="6">
         <v>62</v>
@@ -5936,7 +5936,7 @@
         <v>6</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F63" s="6">
         <v>-1</v>
@@ -5999,7 +5999,7 @@
         <v>-1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F64" s="6">
         <v>64</v>
@@ -6062,7 +6062,7 @@
         <v>-1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F65" s="6">
         <v>65</v>
@@ -6125,7 +6125,7 @@
         <v>-1</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F66" s="6">
         <v>-1</v>
@@ -6188,7 +6188,7 @@
         <v>-1</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F67" s="6">
         <v>67</v>
@@ -6251,7 +6251,7 @@
         <v>-1</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F68" s="6">
         <v>68</v>
@@ -6314,7 +6314,7 @@
         <v>-1</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F69" s="6">
         <v>-1</v>
@@ -6377,7 +6377,7 @@
         <v>7</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F70" s="6">
         <v>70</v>
@@ -6440,7 +6440,7 @@
         <v>7</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F71" s="6">
         <v>71</v>
@@ -6503,7 +6503,7 @@
         <v>7</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F72" s="6">
         <v>-1</v>
@@ -6566,7 +6566,7 @@
         <v>7</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F73" s="6">
         <v>73</v>
@@ -6629,7 +6629,7 @@
         <v>7</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F74" s="6">
         <v>-1</v>
@@ -6692,7 +6692,7 @@
         <v>8</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F75" s="6">
         <v>75</v>
@@ -6755,7 +6755,7 @@
         <v>8</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F76" s="6">
         <v>76</v>
@@ -6818,7 +6818,7 @@
         <v>8</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F77" s="6">
         <v>-1</v>
@@ -6879,7 +6879,7 @@
         <v>-1</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F78" s="6">
         <v>78</v>
@@ -6940,7 +6940,7 @@
         <v>-1</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F79" s="6">
         <v>-1</v>
@@ -7001,7 +7001,7 @@
         <v>10</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F80" s="6">
         <v>80</v>
@@ -7062,7 +7062,7 @@
         <v>10</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F81" s="6">
         <v>-1</v>
@@ -7123,7 +7123,7 @@
         <v>16</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F82" s="6">
         <v>82</v>
@@ -7184,7 +7184,7 @@
         <v>16</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F83" s="6">
         <v>-1</v>
@@ -7245,7 +7245,7 @@
         <v>9</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F84" s="6">
         <v>-1</v>
@@ -7306,7 +7306,7 @@
         <v>9</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F85" s="6">
         <v>85</v>
@@ -7367,7 +7367,7 @@
         <v>9</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F86" s="6">
         <v>-1</v>
@@ -7428,7 +7428,7 @@
         <v>-1</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F87" s="6">
         <v>87</v>
@@ -7489,7 +7489,7 @@
         <v>5</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F88" s="6">
         <v>-1</v>
@@ -7550,7 +7550,7 @@
         <v>-1</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F89" s="6">
         <v>89</v>
@@ -7611,7 +7611,7 @@
         <v>-1</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F90" s="6">
         <v>-1</v>
@@ -7672,7 +7672,7 @@
         <v>-1</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F91" s="6">
         <v>91</v>
@@ -7733,7 +7733,7 @@
         <v>5</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F92" s="6">
         <v>-1</v>
@@ -7794,7 +7794,7 @@
         <v>7</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F93" s="6">
         <v>93</v>
@@ -7855,7 +7855,7 @@
         <v>7</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F94" s="6">
         <v>94</v>
@@ -7916,7 +7916,7 @@
         <v>7</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F95" s="6">
         <v>-1</v>
@@ -7977,7 +7977,7 @@
         <v>8</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F96" s="6">
         <v>-1</v>
@@ -8038,7 +8038,7 @@
         <v>-1</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F97" s="6">
         <v>97</v>
@@ -8099,7 +8099,7 @@
         <v>-1</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F98" s="6">
         <v>-1</v>
@@ -8161,7 +8161,7 @@
         <v>-1</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F99" s="6">
         <v>99</v>
@@ -8223,7 +8223,7 @@
         <v>-1</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F100" s="6">
         <v>-1</v>
@@ -8285,7 +8285,7 @@
         <v>-1</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F101" s="6">
         <v>101</v>
@@ -8347,7 +8347,7 @@
         <v>-1</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F102" s="6">
         <v>-1</v>
@@ -8409,7 +8409,7 @@
         <v>10</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F103" s="6">
         <v>103</v>
@@ -8471,7 +8471,7 @@
         <v>10</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F104" s="6">
         <v>-1</v>
@@ -8533,7 +8533,7 @@
         <v>-1</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F105" s="6">
         <v>105</v>
@@ -8595,7 +8595,7 @@
         <v>-1</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F106" s="6">
         <v>-1</v>
@@ -8657,7 +8657,7 @@
         <v>-1</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F107" s="6">
         <v>-1</v>
@@ -8719,7 +8719,7 @@
         <v>-1</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F108" s="6">
         <v>-1</v>
@@ -8781,7 +8781,7 @@
         <v>-1</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F109" s="6">
         <v>-1</v>
@@ -8843,7 +8843,7 @@
         <v>-1</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F110" s="6">
         <v>110</v>
@@ -8905,7 +8905,7 @@
         <v>-1</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F111" s="6">
         <v>-1</v>
@@ -8967,7 +8967,7 @@
         <v>12</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F112" s="6">
         <v>112</v>
@@ -9029,7 +9029,7 @@
         <v>12</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F113" s="6">
         <v>-1</v>
@@ -9091,7 +9091,7 @@
         <v>-1</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F114" s="6">
         <v>-1</v>
@@ -9153,7 +9153,7 @@
         <v>-1</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F115" s="6">
         <v>-1</v>
@@ -9215,7 +9215,7 @@
         <v>-1</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F116" s="6">
         <v>-1</v>
@@ -9277,7 +9277,7 @@
         <v>-1</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F117" s="6">
         <v>117</v>
@@ -9339,7 +9339,7 @@
         <v>-1</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F118" s="6">
         <v>-1</v>
@@ -9401,7 +9401,7 @@
         <v>-1</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F119" s="6">
         <v>119</v>
@@ -9463,7 +9463,7 @@
         <v>-1</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F120" s="6">
         <v>-1</v>
@@ -9525,7 +9525,7 @@
         <v>-1</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F121" s="6">
         <v>121</v>
@@ -9587,7 +9587,7 @@
         <v>10</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F122" s="6">
         <v>-1</v>
@@ -9649,7 +9649,7 @@
         <v>-1</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F123" s="6">
         <v>-1</v>
@@ -9711,7 +9711,7 @@
         <v>9</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F124" s="6">
         <v>-1</v>
@@ -9773,7 +9773,7 @@
         <v>10</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F125" s="6">
         <v>-1</v>
@@ -9835,7 +9835,7 @@
         <v>-1</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F126" s="6">
         <v>-1</v>
@@ -9897,7 +9897,7 @@
         <v>-1</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F127" s="6">
         <v>-1</v>
@@ -9959,7 +9959,7 @@
         <v>-1</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F128" s="6">
         <v>-1</v>
@@ -10021,7 +10021,7 @@
         <v>-1</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F129" s="6">
         <v>-1</v>
@@ -10083,7 +10083,7 @@
         <v>-1</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F130" s="6">
         <v>130</v>
@@ -10145,7 +10145,7 @@
         <v>9</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F131" s="6">
         <v>-1</v>
@@ -10207,7 +10207,7 @@
         <v>5</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F132" s="6">
         <v>-1</v>
@@ -10269,7 +10269,7 @@
         <v>-1</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F133" s="6">
         <v>-1</v>
@@ -10334,7 +10334,7 @@
         <v>255</v>
       </c>
       <c r="F134" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="I134" s="1">
         <v>45</v>
@@ -10393,7 +10393,7 @@
         <v>-1</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F135" s="6">
         <v>-1</v>
@@ -10455,7 +10455,7 @@
         <v>-1</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F136" s="6">
         <v>-1</v>
@@ -10517,7 +10517,7 @@
         <v>-1</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F137" s="6">
         <v>-1</v>
@@ -10579,7 +10579,7 @@
         <v>-1</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F138" s="6">
         <v>-1</v>
@@ -10641,7 +10641,7 @@
         <v>2</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F139" s="6">
         <v>139</v>
@@ -10703,7 +10703,7 @@
         <v>2</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F140" s="6">
         <v>-1</v>
@@ -10765,7 +10765,7 @@
         <v>2</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F141" s="6">
         <v>141</v>
@@ -10827,7 +10827,7 @@
         <v>2</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F142" s="6">
         <v>-1</v>
@@ -10889,7 +10889,7 @@
         <v>9</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F143" s="6">
         <v>-1</v>
@@ -10951,7 +10951,7 @@
         <v>-1</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F144" s="6">
         <v>-1</v>
@@ -11013,7 +11013,7 @@
         <v>9</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F145" s="6">
         <v>-1</v>
@@ -11075,7 +11075,7 @@
         <v>9</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F146" s="6">
         <v>-1</v>
@@ -11137,7 +11137,7 @@
         <v>9</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F147" s="6">
         <v>-1</v>
@@ -11199,7 +11199,7 @@
         <v>-1</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F148" s="6">
         <v>148</v>
@@ -11261,7 +11261,7 @@
         <v>-1</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F149" s="6">
         <v>149</v>
@@ -11323,7 +11323,7 @@
         <v>9</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F150" s="6">
         <v>-1</v>
@@ -11385,7 +11385,7 @@
         <v>-1</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F151" s="6">
         <v>-1</v>
@@ -11447,7 +11447,7 @@
         <v>-1</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F152" s="6">
         <v>-1</v>

--- a/포켓몬스터 골드 프로젝트 자료/포켓몬 데이터.xlsx
+++ b/포켓몬스터 골드 프로젝트 자료/포켓몬 데이터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\장규석\Desktop\Pokemon-Gold\포켓몬스터 골드 프로젝트 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BD6B06-AEDD-4C5B-AF8A-3AE5B50175BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1A729B-C0B8-47BA-8DC8-7F3681F43DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-7332" yWindow="3744" windowWidth="15012" windowHeight="8964" xr2:uid="{1DF19E18-D0AE-4EAE-9E88-5C2AEDEA9A22}"/>
   </bookViews>
@@ -1941,7 +1941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F33AC5-9BF2-4DA6-B99F-A49D6EE3F880}">
   <dimension ref="A1:AK252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
